--- a/src/pharmacy/examples/example a.xlsx
+++ b/src/pharmacy/examples/example a.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Python\pypharm\src\pharmacy\examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Google Drive\Python\pypharm\src\pharmacy\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8B92A9-B7DE-4A0C-AD0E-7E62478FDC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263D6465-E5F7-4A56-8D0E-2EE07106B9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data 1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="34">
   <si>
     <t>key_column</t>
   </si>
@@ -131,6 +131,15 @@
   </si>
   <si>
     <t>Robert Carmichael Hall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnson, Eric </t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>name inversion</t>
   </si>
 </sst>
 </file>
@@ -466,7 +475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -786,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC273BE-494D-4A97-A254-2011B8074CB9}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,8 +1049,8 @@
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>19</v>
+      <c r="B18" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="C18" s="1">
         <v>1017</v>
@@ -1105,10 +1114,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9AEAA7-D2FC-4576-A578-5ABC2E217A4E}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,7 +1132,7 @@
     <col min="9" max="10" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1148,8 +1157,11 @@
       <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1175,7 +1187,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1201,7 +1213,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1227,7 +1239,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1253,7 +1265,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1279,7 +1291,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1305,7 +1317,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1331,7 +1343,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1357,7 +1369,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1383,7 +1395,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1409,7 +1421,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1435,7 +1447,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1461,7 +1473,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1487,7 +1499,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1513,7 +1525,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1539,7 +1551,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1565,7 +1577,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1581,8 +1593,8 @@
       <c r="G18" s="1">
         <v>17</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>19</v>
+      <c r="H18" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="I18" s="1">
         <v>1017</v>
@@ -1590,8 +1602,11 @@
       <c r="J18" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1617,7 +1632,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1643,7 +1658,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
